--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="24" activeTab="28"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CNL" sheetId="28" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="T16TIPOCONTRATO" sheetId="9" r:id="rId4"/>
     <sheet name="T17ESTADOCIVIL" sheetId="10" r:id="rId5"/>
     <sheet name="T17FORMADESEMBOLSO" sheetId="11" r:id="rId6"/>
-    <sheet name="C17IDNIVELACADEMICO" sheetId="12" r:id="rId7"/>
+    <sheet name="T17IDNIVELACADEMICO" sheetId="12" r:id="rId7"/>
     <sheet name="T17TIPODOCTERCERO" sheetId="13" r:id="rId8"/>
     <sheet name="T17TIPOPAGO" sheetId="14" r:id="rId9"/>
     <sheet name="T19ACTECONOMICA" sheetId="16" r:id="rId10"/>
@@ -5214,7 +5214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="298">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6105,6 +6105,9 @@
   </si>
   <si>
     <t>Validaciones Generales T02USUARIO /3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>T17IDNIVELACADEMICO</t>
   </si>
 </sst>
 </file>
@@ -7228,6 +7231,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7285,27 +7309,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -7784,7 +7787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7832,26 +7835,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -7864,11 +7867,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -7881,11 +7884,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7897,29 +7900,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8487,26 +8490,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -8519,11 +8522,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -8536,11 +8539,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8552,29 +8555,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9122,26 +9125,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -9154,11 +9157,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -9171,11 +9174,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9187,29 +9190,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9743,26 +9746,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -9775,11 +9778,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -9792,11 +9795,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9808,29 +9811,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10364,26 +10367,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -10396,11 +10399,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -10413,11 +10416,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10429,29 +10432,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10981,26 +10984,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -11013,11 +11016,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -11030,11 +11033,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11046,29 +11049,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11616,26 +11619,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -11648,11 +11651,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -11665,11 +11668,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11681,29 +11684,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12279,26 +12282,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -12311,11 +12314,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -12328,11 +12331,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12344,29 +12347,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12900,26 +12903,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -12932,11 +12935,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -12949,11 +12952,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12965,29 +12968,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13521,26 +13524,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -13553,11 +13556,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -13570,11 +13573,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13586,29 +13589,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14156,26 +14159,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -14188,11 +14191,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -14205,11 +14208,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14221,29 +14224,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14777,26 +14780,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -14809,11 +14812,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -14826,11 +14829,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14842,29 +14845,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15412,26 +15415,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -15444,11 +15447,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -15461,11 +15464,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15477,29 +15480,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16033,26 +16036,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -16065,11 +16068,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -16082,11 +16085,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16098,29 +16101,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16682,26 +16685,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -16714,11 +16717,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -16731,11 +16734,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16747,29 +16750,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17303,26 +17306,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -17335,11 +17338,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -17352,11 +17355,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17368,29 +17371,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17924,26 +17927,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -17956,11 +17959,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -17973,11 +17976,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17989,29 +17992,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18587,26 +18590,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -18619,11 +18622,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -18636,11 +18639,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18652,29 +18655,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18737,7 +18740,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="73"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="117">
+      <c r="I9" s="98">
         <v>3</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -19068,13 +19071,13 @@
     </row>
     <row r="20" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="46"/>
-      <c r="I20" s="118">
+      <c r="I20" s="99">
         <v>15</v>
       </c>
       <c r="J20" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="100" t="s">
         <v>231</v>
       </c>
       <c r="L20" s="45"/>
@@ -19172,7 +19175,7 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L25" s="113"/>
+      <c r="L25" s="94"/>
       <c r="M25" s="37">
         <v>14</v>
       </c>
@@ -19536,26 +19539,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -19568,11 +19571,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -19585,11 +19588,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19601,29 +19604,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19685,14 +19688,14 @@
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
       <c r="G9" s="55"/>
-      <c r="H9" s="114"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="62">
         <v>7</v>
       </c>
       <c r="J9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="K9" s="101" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="61"/>
@@ -19726,7 +19729,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="114"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="34">
         <v>8</v>
       </c>
@@ -19763,9 +19766,9 @@
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="114"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="34">
         <v>9</v>
       </c>
@@ -19802,9 +19805,9 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="114"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="95"/>
       <c r="I12" s="34">
         <v>10</v>
       </c>
@@ -19841,9 +19844,9 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="114"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="34">
         <v>11</v>
       </c>
@@ -19882,7 +19885,7 @@
       <c r="E14" s="47"/>
       <c r="F14" s="49"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="114"/>
+      <c r="H14" s="95"/>
       <c r="I14" s="34">
         <v>12</v>
       </c>
@@ -19911,7 +19914,7 @@
       <c r="R14" s="38"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="115"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="34">
         <v>13</v>
       </c>
@@ -19940,7 +19943,7 @@
       <c r="R15" s="38"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="115"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="34">
         <v>14</v>
       </c>
@@ -19969,7 +19972,7 @@
       <c r="R16" s="38"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="115"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="34">
         <v>15</v>
       </c>
@@ -19998,7 +20001,7 @@
       <c r="R17" s="38"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="115"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="34">
         <v>16</v>
       </c>
@@ -20027,7 +20030,7 @@
       <c r="R18" s="67"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H19" s="115"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="34">
         <v>17</v>
       </c>
@@ -20056,7 +20059,7 @@
       <c r="R19" s="38"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H20" s="115"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="34">
         <v>18</v>
       </c>
@@ -20085,7 +20088,7 @@
       <c r="R20" s="35"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H21" s="115"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="34">
         <v>19</v>
       </c>
@@ -20114,7 +20117,7 @@
       <c r="R21" s="35"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H22" s="115"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="34">
         <v>20</v>
       </c>
@@ -20143,7 +20146,7 @@
       <c r="R22" s="35"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="115"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="34">
         <v>21</v>
       </c>
@@ -20172,7 +20175,7 @@
       <c r="R23" s="35"/>
     </row>
     <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="116"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="33">
         <v>22</v>
       </c>
@@ -20182,7 +20185,7 @@
       <c r="K24" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="L24" s="121"/>
+      <c r="L24" s="102"/>
       <c r="M24" s="33">
         <v>12</v>
       </c>
@@ -20201,7 +20204,7 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L25" s="113"/>
+      <c r="L25" s="94"/>
       <c r="M25" s="37">
         <v>14</v>
       </c>
@@ -20507,7 +20510,7 @@
       <c r="R40" s="36"/>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L41" s="113"/>
+      <c r="L41" s="94"/>
       <c r="M41" s="37">
         <v>15</v>
       </c>
@@ -20813,7 +20816,7 @@
       <c r="R56" s="36"/>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L57" s="113"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="37">
         <v>16</v>
       </c>
@@ -21119,7 +21122,7 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L73" s="113"/>
+      <c r="L73" s="94"/>
       <c r="M73" s="37">
         <v>17</v>
       </c>
@@ -21483,26 +21486,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -21515,11 +21518,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -21532,11 +21535,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -21548,29 +21551,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21639,7 +21642,7 @@
       <c r="J9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="K9" s="101" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="85"/>
@@ -22030,25 +22033,25 @@
     </row>
     <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="46"/>
-      <c r="M24" s="125">
+      <c r="M24" s="106">
         <v>8</v>
       </c>
-      <c r="N24" s="126" t="s">
+      <c r="N24" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="O24" s="126" t="s">
+      <c r="O24" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="P24" s="126" t="s">
+      <c r="P24" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="Q24" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="127"/>
+      <c r="Q24" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="108"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L25" s="124"/>
+      <c r="L25" s="105"/>
       <c r="M25" s="37">
         <v>10</v>
       </c>
@@ -22069,7 +22072,7 @@
       </c>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L26" s="115"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="34">
         <v>3</v>
       </c>
@@ -22088,7 +22091,7 @@
       <c r="R26" s="38"/>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L27" s="115"/>
+      <c r="L27" s="96"/>
       <c r="M27" s="34">
         <v>4</v>
       </c>
@@ -22107,7 +22110,7 @@
       <c r="R27" s="38"/>
     </row>
     <row r="28" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L28" s="115"/>
+      <c r="L28" s="96"/>
       <c r="M28" s="24">
         <v>5</v>
       </c>
@@ -22126,7 +22129,7 @@
       <c r="R28" s="38"/>
     </row>
     <row r="29" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L29" s="115"/>
+      <c r="L29" s="96"/>
       <c r="M29" s="24">
         <v>12</v>
       </c>
@@ -22145,7 +22148,7 @@
       <c r="R29" s="38"/>
     </row>
     <row r="30" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L30" s="115"/>
+      <c r="L30" s="96"/>
       <c r="M30" s="24">
         <v>7</v>
       </c>
@@ -22164,7 +22167,7 @@
       <c r="R30" s="38"/>
     </row>
     <row r="31" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L31" s="115"/>
+      <c r="L31" s="96"/>
       <c r="M31" s="24">
         <v>7</v>
       </c>
@@ -22183,7 +22186,7 @@
       <c r="R31" s="38"/>
     </row>
     <row r="32" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L32" s="115"/>
+      <c r="L32" s="96"/>
       <c r="M32" s="24">
         <v>7</v>
       </c>
@@ -22202,7 +22205,7 @@
       <c r="R32" s="38"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L33" s="115"/>
+      <c r="L33" s="96"/>
       <c r="M33" s="24">
         <v>3</v>
       </c>
@@ -22221,7 +22224,7 @@
       <c r="R33" s="38"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L34" s="115"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="65">
         <v>8</v>
       </c>
@@ -22240,7 +22243,7 @@
       <c r="R34" s="67"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L35" s="115"/>
+      <c r="L35" s="96"/>
       <c r="M35" s="24">
         <v>6</v>
       </c>
@@ -22259,7 +22262,7 @@
       <c r="R35" s="38"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L36" s="115"/>
+      <c r="L36" s="96"/>
       <c r="M36" s="24">
         <v>2</v>
       </c>
@@ -22278,7 +22281,7 @@
       <c r="R36" s="35"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L37" s="115"/>
+      <c r="L37" s="96"/>
       <c r="M37" s="34">
         <v>8</v>
       </c>
@@ -22297,7 +22300,7 @@
       <c r="R37" s="35"/>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L38" s="115"/>
+      <c r="L38" s="96"/>
       <c r="M38" s="34">
         <v>8</v>
       </c>
@@ -22316,7 +22319,7 @@
       <c r="R38" s="35"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L39" s="115"/>
+      <c r="L39" s="96"/>
       <c r="M39" s="34">
         <v>8</v>
       </c>
@@ -22335,7 +22338,7 @@
       <c r="R39" s="35"/>
     </row>
     <row r="40" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="116"/>
+      <c r="L40" s="97"/>
       <c r="M40" s="33">
         <v>8</v>
       </c>
@@ -22412,26 +22415,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -22444,11 +22447,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -22461,11 +22464,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22477,29 +22480,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22572,7 +22575,7 @@
       <c r="J9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="109" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="85"/>
@@ -22651,8 +22654,8 @@
       <c r="E11" s="39">
         <v>22</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>11</v>
@@ -22694,8 +22697,8 @@
       <c r="E12" s="39">
         <v>22</v>
       </c>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="45"/>
       <c r="I12" s="34">
         <v>12</v>
@@ -22737,8 +22740,8 @@
       <c r="E13" s="39">
         <v>22</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="45"/>
       <c r="I13" s="34">
         <v>13</v>
@@ -22780,8 +22783,8 @@
       <c r="E14" s="39">
         <v>22</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="45"/>
       <c r="I14" s="34">
         <v>14</v>
@@ -22823,7 +22826,7 @@
       <c r="E15" s="39">
         <v>22</v>
       </c>
-      <c r="F15" s="122"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="90"/>
       <c r="H15" s="45"/>
       <c r="I15" s="34">
@@ -23069,7 +23072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -23107,26 +23110,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -23139,11 +23142,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -23156,11 +23159,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23172,29 +23175,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23263,10 +23266,10 @@
       <c r="J9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="129"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="37">
         <v>8</v>
       </c>
@@ -23297,7 +23300,7 @@
       <c r="K10" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="129"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="34">
         <v>2</v>
       </c>
@@ -23326,7 +23329,7 @@
       <c r="K11" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="L11" s="129"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="34">
         <v>3</v>
       </c>
@@ -23355,7 +23358,7 @@
       <c r="K12" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="129"/>
+      <c r="L12" s="110"/>
       <c r="M12" s="24">
         <v>4</v>
       </c>
@@ -23384,7 +23387,7 @@
       <c r="K13" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="115"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="24">
         <v>9</v>
       </c>
@@ -23413,7 +23416,7 @@
       <c r="K14" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="115"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="24">
         <v>6</v>
       </c>
@@ -23442,7 +23445,7 @@
       <c r="K15" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="L15" s="115"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="24">
         <v>6</v>
       </c>
@@ -23471,7 +23474,7 @@
       <c r="K16" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="L16" s="115"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="24">
         <v>6</v>
       </c>
@@ -23490,7 +23493,7 @@
       <c r="R16" s="38"/>
     </row>
     <row r="17" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L17" s="115"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="24">
         <v>2</v>
       </c>
@@ -23509,7 +23512,7 @@
       <c r="R17" s="38"/>
     </row>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="115"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="65">
         <v>7</v>
       </c>
@@ -23528,7 +23531,7 @@
       <c r="R18" s="67"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="115"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="24">
         <v>5</v>
       </c>
@@ -23547,7 +23550,7 @@
       <c r="R19" s="38"/>
     </row>
     <row r="20" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="115"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="24">
         <v>1</v>
       </c>
@@ -23566,7 +23569,7 @@
       <c r="R20" s="35"/>
     </row>
     <row r="21" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="115"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="34">
         <v>7</v>
       </c>
@@ -23585,7 +23588,7 @@
       <c r="R21" s="35"/>
     </row>
     <row r="22" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="115"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="34">
         <v>7</v>
       </c>
@@ -23604,7 +23607,7 @@
       <c r="R22" s="35"/>
     </row>
     <row r="23" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="115"/>
+      <c r="L23" s="96"/>
       <c r="M23" s="34">
         <v>7</v>
       </c>
@@ -23623,7 +23626,7 @@
       <c r="R23" s="35"/>
     </row>
     <row r="24" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="116"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="33">
         <v>7</v>
       </c>
@@ -23700,26 +23703,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -23732,11 +23735,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -23749,11 +23752,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23765,29 +23768,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24349,26 +24352,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -24381,11 +24384,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -24398,11 +24401,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24414,29 +24417,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24970,26 +24973,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -25002,11 +25005,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -25019,11 +25022,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25035,29 +25038,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25591,26 +25594,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -25623,11 +25626,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -25640,11 +25643,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25656,29 +25659,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -26188,8 +26191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26226,26 +26229,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="D2" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -26258,11 +26261,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -26275,11 +26278,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26291,29 +26294,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -26845,26 +26848,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -26877,11 +26880,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -26894,11 +26897,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26910,29 +26913,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27474,26 +27477,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -27506,11 +27509,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -27523,11 +27526,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27539,29 +27542,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CNL" sheetId="28" r:id="rId1"/>
@@ -5214,7 +5214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="298">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5918,9 +5918,6 @@
     <t>C65TIPOMODELO</t>
   </si>
   <si>
-    <t>C65CAUSALARRATRE</t>
-  </si>
-  <si>
     <t>C65DESCCAUSALARRASTRE</t>
   </si>
   <si>
@@ -6108,6 +6105,9 @@
   </si>
   <si>
     <t>T17IDNIVELACADEMICO</t>
+  </si>
+  <si>
+    <t>C65CAUSALARRASTRE</t>
   </si>
 </sst>
 </file>
@@ -6436,7 +6436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -6981,6 +6981,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7070,7 +7115,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -7308,6 +7353,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -7787,7 +7838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7797,8 +7848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7980,8 +8031,12 @@
       <c r="C9" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="54">
+        <v>22</v>
+      </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55"/>
       <c r="H9" s="45"/>
@@ -8064,8 +8119,12 @@
       <c r="C11" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="39">
+        <v>22</v>
+      </c>
       <c r="F11" s="70"/>
       <c r="G11" s="56"/>
       <c r="H11" s="45"/>
@@ -18552,8 +18611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18735,11 +18794,15 @@
       <c r="C9" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="71">
+        <v>1</v>
+      </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="98">
         <v>3</v>
       </c>
@@ -18776,11 +18839,15 @@
       <c r="C10" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="72">
+        <v>22</v>
+      </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="45"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="44">
         <v>4</v>
       </c>
@@ -19501,8 +19568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R88"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19684,8 +19751,12 @@
       <c r="C9" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="71">
+        <v>22</v>
+      </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55"/>
       <c r="H9" s="95"/>
@@ -19703,7 +19774,7 @@
         <v>13</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>40</v>
@@ -19725,8 +19796,12 @@
       <c r="C10" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="69">
+        <v>1</v>
+      </c>
       <c r="F10" s="39"/>
       <c r="G10" s="56"/>
       <c r="H10" s="95"/>
@@ -19744,7 +19819,7 @@
         <v>7</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>19</v>
@@ -19758,16 +19833,20 @@
       <c r="R10" s="38"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="93">
+      <c r="B11" s="52">
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+        <v>297</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="69">
+        <v>22</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="95"/>
       <c r="I11" s="34">
         <v>9</v>
@@ -19776,14 +19855,14 @@
         <v>53</v>
       </c>
       <c r="K11" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="34">
         <v>8</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>22</v>
@@ -19797,16 +19876,20 @@
       <c r="R11" s="38"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="93">
+      <c r="B12" s="52">
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
+        <v>234</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="69">
+        <v>500</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="95"/>
       <c r="I12" s="34">
         <v>10</v>
@@ -19822,7 +19905,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>24</v>
@@ -19836,16 +19919,20 @@
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="93">
+      <c r="B13" s="52">
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+        <v>235</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="69">
+        <v>2</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="95"/>
       <c r="I13" s="34">
         <v>11</v>
@@ -19861,7 +19948,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>41</v>
@@ -19875,16 +19962,20 @@
       <c r="R13" s="38"/>
     </row>
     <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48">
+      <c r="B14" s="57">
         <v>6</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="C14" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="72">
+        <v>22</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="95"/>
       <c r="I14" s="34">
         <v>12</v>
@@ -19900,7 +19991,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>42</v>
@@ -19919,17 +20010,17 @@
         <v>13</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K15" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L15" s="53"/>
       <c r="M15" s="24">
         <v>11</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>43</v>
@@ -19948,17 +20039,17 @@
         <v>14</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L16" s="53"/>
       <c r="M16" s="24">
         <v>11</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>44</v>
@@ -19977,17 +20068,17 @@
         <v>15</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K17" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L17" s="53"/>
       <c r="M17" s="24">
         <v>7</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>45</v>
@@ -20006,17 +20097,17 @@
         <v>16</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K18" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L18" s="53"/>
       <c r="M18" s="65">
         <v>12</v>
       </c>
       <c r="N18" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O18" s="66" t="s">
         <v>27</v>
@@ -20035,17 +20126,17 @@
         <v>17</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L19" s="53"/>
       <c r="M19" s="24">
         <v>10</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>46</v>
@@ -20064,17 +20155,17 @@
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L20" s="53"/>
       <c r="M20" s="24">
         <v>1</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>47</v>
@@ -20093,17 +20184,17 @@
         <v>19</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K21" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L21" s="53"/>
       <c r="M21" s="34">
         <v>12</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>48</v>
@@ -20122,17 +20213,17 @@
         <v>20</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K22" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L22" s="53"/>
       <c r="M22" s="34">
         <v>12</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>49</v>
@@ -20151,17 +20242,17 @@
         <v>21</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K23" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L23" s="53"/>
       <c r="M23" s="34">
         <v>12</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O23" s="32" t="s">
         <v>50</v>
@@ -20180,17 +20271,17 @@
         <v>22</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K24" s="79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L24" s="102"/>
       <c r="M24" s="33">
         <v>12</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O24" s="41" t="s">
         <v>28</v>
@@ -20209,7 +20300,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O25" s="40" t="s">
         <v>40</v>
@@ -20230,7 +20321,7 @@
         <v>7</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>19</v>
@@ -20249,7 +20340,7 @@
         <v>8</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O27" s="32" t="s">
         <v>22</v>
@@ -20268,7 +20359,7 @@
         <v>9</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>24</v>
@@ -20287,7 +20378,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O29" s="32" t="s">
         <v>41</v>
@@ -20306,7 +20397,7 @@
         <v>11</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O30" s="32" t="s">
         <v>42</v>
@@ -20325,7 +20416,7 @@
         <v>11</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O31" s="32" t="s">
         <v>43</v>
@@ -20344,7 +20435,7 @@
         <v>11</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O32" s="32" t="s">
         <v>44</v>
@@ -20363,7 +20454,7 @@
         <v>7</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O33" s="32" t="s">
         <v>45</v>
@@ -20382,7 +20473,7 @@
         <v>12</v>
       </c>
       <c r="N34" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O34" s="66" t="s">
         <v>27</v>
@@ -20401,7 +20492,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O35" s="32" t="s">
         <v>46</v>
@@ -20420,7 +20511,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O36" s="32" t="s">
         <v>47</v>
@@ -20439,7 +20530,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37" s="32" t="s">
         <v>48</v>
@@ -20458,7 +20549,7 @@
         <v>12</v>
       </c>
       <c r="N38" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O38" s="32" t="s">
         <v>49</v>
@@ -20477,7 +20568,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>50</v>
@@ -20496,7 +20587,7 @@
         <v>12</v>
       </c>
       <c r="N40" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O40" s="41" t="s">
         <v>28</v>
@@ -20515,7 +20606,7 @@
         <v>15</v>
       </c>
       <c r="N41" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O41" s="40" t="s">
         <v>40</v>
@@ -20536,7 +20627,7 @@
         <v>7</v>
       </c>
       <c r="N42" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O42" s="32" t="s">
         <v>19</v>
@@ -20555,7 +20646,7 @@
         <v>8</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O43" s="32" t="s">
         <v>22</v>
@@ -20574,7 +20665,7 @@
         <v>9</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O44" s="32" t="s">
         <v>24</v>
@@ -20593,7 +20684,7 @@
         <v>20</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O45" s="32" t="s">
         <v>41</v>
@@ -20612,7 +20703,7 @@
         <v>11</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O46" s="32" t="s">
         <v>42</v>
@@ -20631,7 +20722,7 @@
         <v>11</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O47" s="32" t="s">
         <v>43</v>
@@ -20650,7 +20741,7 @@
         <v>11</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O48" s="32" t="s">
         <v>44</v>
@@ -20669,7 +20760,7 @@
         <v>7</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O49" s="32" t="s">
         <v>45</v>
@@ -20688,7 +20779,7 @@
         <v>12</v>
       </c>
       <c r="N50" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O50" s="66" t="s">
         <v>27</v>
@@ -20707,7 +20798,7 @@
         <v>10</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>46</v>
@@ -20726,7 +20817,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O52" s="32" t="s">
         <v>47</v>
@@ -20745,7 +20836,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O53" s="32" t="s">
         <v>48</v>
@@ -20764,7 +20855,7 @@
         <v>12</v>
       </c>
       <c r="N54" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O54" s="32" t="s">
         <v>49</v>
@@ -20783,7 +20874,7 @@
         <v>12</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O55" s="32" t="s">
         <v>50</v>
@@ -20802,7 +20893,7 @@
         <v>12</v>
       </c>
       <c r="N56" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O56" s="41" t="s">
         <v>28</v>
@@ -20821,7 +20912,7 @@
         <v>16</v>
       </c>
       <c r="N57" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O57" s="40" t="s">
         <v>40</v>
@@ -20842,7 +20933,7 @@
         <v>7</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O58" s="32" t="s">
         <v>19</v>
@@ -20861,7 +20952,7 @@
         <v>8</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O59" s="32" t="s">
         <v>22</v>
@@ -20880,7 +20971,7 @@
         <v>9</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O60" s="32" t="s">
         <v>24</v>
@@ -20899,7 +20990,7 @@
         <v>21</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O61" s="32" t="s">
         <v>41</v>
@@ -20918,7 +21009,7 @@
         <v>11</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O62" s="32" t="s">
         <v>42</v>
@@ -20937,7 +21028,7 @@
         <v>11</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O63" s="32" t="s">
         <v>43</v>
@@ -20956,7 +21047,7 @@
         <v>11</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>44</v>
@@ -20975,7 +21066,7 @@
         <v>7</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O65" s="32" t="s">
         <v>45</v>
@@ -20994,7 +21085,7 @@
         <v>12</v>
       </c>
       <c r="N66" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O66" s="66" t="s">
         <v>27</v>
@@ -21013,7 +21104,7 @@
         <v>10</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O67" s="32" t="s">
         <v>46</v>
@@ -21032,7 +21123,7 @@
         <v>5</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O68" s="32" t="s">
         <v>47</v>
@@ -21051,7 +21142,7 @@
         <v>12</v>
       </c>
       <c r="N69" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O69" s="32" t="s">
         <v>48</v>
@@ -21070,7 +21161,7 @@
         <v>12</v>
       </c>
       <c r="N70" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O70" s="32" t="s">
         <v>49</v>
@@ -21089,7 +21180,7 @@
         <v>12</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O71" s="32" t="s">
         <v>50</v>
@@ -21108,7 +21199,7 @@
         <v>12</v>
       </c>
       <c r="N72" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O72" s="41" t="s">
         <v>28</v>
@@ -21127,7 +21218,7 @@
         <v>17</v>
       </c>
       <c r="N73" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O73" s="40" t="s">
         <v>40</v>
@@ -21148,7 +21239,7 @@
         <v>7</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O74" s="32" t="s">
         <v>19</v>
@@ -21167,7 +21258,7 @@
         <v>8</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O75" s="32" t="s">
         <v>22</v>
@@ -21186,7 +21277,7 @@
         <v>9</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O76" s="32" t="s">
         <v>24</v>
@@ -21205,7 +21296,7 @@
         <v>22</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O77" s="32" t="s">
         <v>41</v>
@@ -21224,7 +21315,7 @@
         <v>11</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O78" s="32" t="s">
         <v>42</v>
@@ -21243,7 +21334,7 @@
         <v>11</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O79" s="32" t="s">
         <v>43</v>
@@ -21262,7 +21353,7 @@
         <v>11</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O80" s="32" t="s">
         <v>44</v>
@@ -21281,7 +21372,7 @@
         <v>7</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O81" s="32" t="s">
         <v>45</v>
@@ -21300,7 +21391,7 @@
         <v>12</v>
       </c>
       <c r="N82" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O82" s="66" t="s">
         <v>27</v>
@@ -21319,7 +21410,7 @@
         <v>10</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O83" s="32" t="s">
         <v>46</v>
@@ -21338,7 +21429,7 @@
         <v>6</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O84" s="32" t="s">
         <v>47</v>
@@ -21357,7 +21448,7 @@
         <v>12</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O85" s="32" t="s">
         <v>48</v>
@@ -21376,7 +21467,7 @@
         <v>12</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O86" s="32" t="s">
         <v>49</v>
@@ -21395,7 +21486,7 @@
         <v>12</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="32" t="s">
         <v>50</v>
@@ -21414,7 +21505,7 @@
         <v>12</v>
       </c>
       <c r="N88" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="41" t="s">
         <v>28</v>
@@ -21449,7 +21540,7 @@
   <dimension ref="B1:R40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21487,7 +21578,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E2" s="117"/>
       <c r="F2" s="118"/>
@@ -21628,14 +21719,18 @@
       <c r="B9" s="51">
         <v>1</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="71">
+        <v>22</v>
+      </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="62">
         <v>3</v>
       </c>
@@ -21650,7 +21745,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>40</v>
@@ -21669,14 +21764,18 @@
       <c r="B10" s="57">
         <v>2</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="C10" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="72">
+        <v>22</v>
+      </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="45"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="34">
         <v>4</v>
       </c>
@@ -21691,7 +21790,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>19</v>
@@ -21713,14 +21812,14 @@
         <v>53</v>
       </c>
       <c r="K11" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L11" s="85"/>
       <c r="M11" s="34">
         <v>4</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>22</v>
@@ -21749,7 +21848,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>24</v>
@@ -21778,7 +21877,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>41</v>
@@ -21807,7 +21906,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>42</v>
@@ -21826,17 +21925,17 @@
         <v>9</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="24">
         <v>7</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>43</v>
@@ -21855,17 +21954,17 @@
         <v>10</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L16" s="45"/>
       <c r="M16" s="24">
         <v>7</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>44</v>
@@ -21884,17 +21983,17 @@
         <v>11</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K17" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="24">
         <v>3</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>45</v>
@@ -21913,17 +22012,17 @@
         <v>12</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K18" s="79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="65">
         <v>8</v>
       </c>
       <c r="N18" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O18" s="66" t="s">
         <v>27</v>
@@ -21942,7 +22041,7 @@
         <v>6</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>46</v>
@@ -21961,7 +22060,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>47</v>
@@ -21980,7 +22079,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>48</v>
@@ -21999,7 +22098,7 @@
         <v>8</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>49</v>
@@ -22018,7 +22117,7 @@
         <v>8</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O23" s="32" t="s">
         <v>50</v>
@@ -22037,7 +22136,7 @@
         <v>8</v>
       </c>
       <c r="N24" s="107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O24" s="107" t="s">
         <v>28</v>
@@ -22056,7 +22155,7 @@
         <v>10</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O25" s="40" t="s">
         <v>40</v>
@@ -22077,7 +22176,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>19</v>
@@ -22096,7 +22195,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O27" s="32" t="s">
         <v>22</v>
@@ -22115,7 +22214,7 @@
         <v>5</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>24</v>
@@ -22134,7 +22233,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O29" s="32" t="s">
         <v>41</v>
@@ -22153,7 +22252,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O30" s="32" t="s">
         <v>42</v>
@@ -22172,7 +22271,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O31" s="32" t="s">
         <v>43</v>
@@ -22191,7 +22290,7 @@
         <v>7</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O32" s="32" t="s">
         <v>44</v>
@@ -22210,7 +22309,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O33" s="32" t="s">
         <v>45</v>
@@ -22229,7 +22328,7 @@
         <v>8</v>
       </c>
       <c r="N34" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O34" s="66" t="s">
         <v>27</v>
@@ -22248,7 +22347,7 @@
         <v>6</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O35" s="32" t="s">
         <v>46</v>
@@ -22267,7 +22366,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O36" s="32" t="s">
         <v>47</v>
@@ -22286,7 +22385,7 @@
         <v>8</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O37" s="32" t="s">
         <v>48</v>
@@ -22305,7 +22404,7 @@
         <v>8</v>
       </c>
       <c r="N38" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O38" s="32" t="s">
         <v>49</v>
@@ -22324,7 +22423,7 @@
         <v>8</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>50</v>
@@ -22343,7 +22442,7 @@
         <v>8</v>
       </c>
       <c r="N40" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O40" s="41" t="s">
         <v>28</v>
@@ -22416,7 +22515,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="117"/>
       <c r="F2" s="118"/>
@@ -22558,7 +22657,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>62</v>
@@ -22583,7 +22682,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>40</v>
@@ -22603,7 +22702,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>62</v>
@@ -22628,7 +22727,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>19</v>
@@ -22646,7 +22745,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>65</v>
@@ -22664,14 +22763,14 @@
         <v>53</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L11" s="85"/>
       <c r="M11" s="34">
         <v>10</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>22</v>
@@ -22689,7 +22788,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>65</v>
@@ -22714,7 +22813,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>24</v>
@@ -22732,7 +22831,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>65</v>
@@ -22757,7 +22856,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>41</v>
@@ -22775,7 +22874,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>65</v>
@@ -22800,7 +22899,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>42</v>
@@ -22818,7 +22917,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>65</v>
@@ -22836,14 +22935,14 @@
         <v>32</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="24">
         <v>13</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>43</v>
@@ -22861,7 +22960,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>65</v>
@@ -22876,17 +22975,17 @@
         <v>16</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L16" s="45"/>
       <c r="M16" s="24">
         <v>13</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>44</v>
@@ -22905,7 +23004,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>45</v>
@@ -22924,7 +23023,7 @@
         <v>13</v>
       </c>
       <c r="N18" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O18" s="66" t="s">
         <v>27</v>
@@ -22943,7 +23042,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>46</v>
@@ -22962,7 +23061,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>47</v>
@@ -22981,7 +23080,7 @@
         <v>14</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>48</v>
@@ -23000,7 +23099,7 @@
         <v>14</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>49</v>
@@ -23019,7 +23118,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O23" s="32" t="s">
         <v>50</v>
@@ -23038,7 +23137,7 @@
         <v>14</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O24" s="41" t="s">
         <v>28</v>
@@ -23072,8 +23171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23111,7 +23210,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="117"/>
       <c r="F2" s="118"/>
@@ -23248,18 +23347,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="51">
+    <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="130">
         <v>1</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="45"/>
+      <c r="C9" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="132">
+        <v>22</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="62">
         <v>2</v>
       </c>
@@ -23327,7 +23430,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L11" s="110"/>
       <c r="M11" s="34">
@@ -23443,7 +23546,7 @@
         <v>32</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L15" s="96"/>
       <c r="M15" s="24">
@@ -23469,10 +23572,10 @@
         <v>9</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L16" s="96"/>
       <c r="M16" s="24">
@@ -26191,7 +26294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -26230,7 +26333,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="117"/>
       <c r="F2" s="118"/>

--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="24" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CNL" sheetId="28" r:id="rId1"/>
@@ -5214,7 +5214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="302">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6108,6 +6108,18 @@
   </si>
   <si>
     <t>C65CAUSALARRASTRE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T33CAUSALRECHAZO/1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T33CAUSALRECHAZO/2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T33CAUSALRECHAZO/3. Búsqueda del id del esquema</t>
   </si>
 </sst>
 </file>
@@ -7297,6 +7309,12 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7353,12 +7371,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -7838,7 +7850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7848,8 +7860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7886,26 +7898,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -7918,11 +7930,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -7935,11 +7947,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7951,29 +7963,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8169,7 +8181,9 @@
         <v>15</v>
       </c>
       <c r="F12" s="70"/>
-      <c r="G12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>298</v>
+      </c>
       <c r="H12" s="45"/>
       <c r="I12" s="34">
         <v>9</v>
@@ -8511,8 +8525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8549,26 +8563,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -8581,11 +8595,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -8598,11 +8612,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8614,29 +8628,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8789,7 +8803,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="G11" s="50" t="s">
+        <v>298</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>6</v>
@@ -9146,8 +9162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9184,26 +9200,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -9216,11 +9232,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -9233,11 +9249,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9249,29 +9265,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9381,7 +9397,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -9767,8 +9785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9805,26 +9823,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -9837,11 +9855,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -9854,11 +9872,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9870,29 +9888,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10002,7 +10020,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -10388,8 +10408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10426,26 +10446,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -10458,11 +10478,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -10475,11 +10495,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10491,29 +10511,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10623,7 +10643,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -11005,8 +11027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11043,26 +11065,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -11075,11 +11097,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -11092,11 +11114,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11108,29 +11130,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11195,7 +11217,9 @@
         <v>8</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>298</v>
+      </c>
       <c r="H9" s="45"/>
       <c r="I9" s="62">
         <v>4</v>
@@ -11640,8 +11664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11678,26 +11702,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -11710,11 +11734,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -11727,11 +11751,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11743,29 +11767,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11961,7 +11985,9 @@
         <v>22</v>
       </c>
       <c r="F12" s="70"/>
-      <c r="G12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>298</v>
+      </c>
       <c r="H12" s="45"/>
       <c r="I12" s="34">
         <v>9</v>
@@ -12303,8 +12329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12341,26 +12367,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -12373,11 +12399,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -12390,11 +12416,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12406,29 +12432,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12538,7 +12564,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -12924,8 +12952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12962,26 +12990,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -12994,11 +13022,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -13011,11 +13039,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13027,29 +13055,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13159,7 +13187,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -13545,8 +13575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13583,26 +13613,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -13615,11 +13645,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -13632,11 +13662,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13648,29 +13678,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13823,7 +13853,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="76"/>
-      <c r="G11" s="59"/>
+      <c r="G11" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>6</v>
@@ -14180,8 +14212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14218,26 +14250,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -14250,11 +14282,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -14267,11 +14299,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14283,29 +14315,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14415,7 +14447,9 @@
         <v>10</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -14801,8 +14835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14839,26 +14873,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -14871,11 +14905,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -14888,11 +14922,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14904,29 +14938,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15079,7 +15113,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="G11" s="50" t="s">
+        <v>298</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>6</v>
@@ -15436,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15474,26 +15510,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -15506,11 +15542,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -15523,11 +15559,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15539,29 +15575,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15671,7 +15707,9 @@
         <v>7</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -16057,8 +16095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16095,26 +16133,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -16127,11 +16165,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -16144,11 +16182,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16160,29 +16198,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16247,7 +16285,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>298</v>
+      </c>
       <c r="H9" s="45"/>
       <c r="I9" s="62">
         <v>5</v>
@@ -16706,8 +16746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16744,26 +16784,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -16776,11 +16816,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -16793,11 +16833,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16809,29 +16849,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16941,7 +16981,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -17327,8 +17369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17365,26 +17407,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -17397,11 +17439,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -17414,11 +17456,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17430,29 +17472,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17562,7 +17604,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="53"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -17948,8 +17992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17986,26 +18030,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -18018,11 +18062,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -18035,11 +18079,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18051,29 +18095,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18147,7 +18191,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="L9" s="85"/>
       <c r="M9" s="37">
@@ -18278,7 +18322,7 @@
         <v>53</v>
       </c>
       <c r="K12" s="60" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="L12" s="85"/>
       <c r="M12" s="24">
@@ -18312,7 +18356,9 @@
         <v>22</v>
       </c>
       <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="G13" s="92" t="s">
+        <v>298</v>
+      </c>
       <c r="H13" s="53"/>
       <c r="I13" s="34">
         <v>10</v>
@@ -18321,7 +18367,7 @@
         <v>54</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="L13" s="45"/>
       <c r="M13" s="24">
@@ -18612,7 +18658,7 @@
   <dimension ref="B1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18649,26 +18695,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -18681,11 +18727,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -18698,11 +18744,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18714,29 +18760,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18801,7 +18847,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>298</v>
+      </c>
       <c r="H9" s="53"/>
       <c r="I9" s="98">
         <v>3</v>
@@ -19569,7 +19617,7 @@
   <dimension ref="B1:R88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19606,26 +19654,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -19638,11 +19686,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -19655,11 +19703,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19671,29 +19719,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19758,7 +19806,9 @@
         <v>22</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>298</v>
+      </c>
       <c r="H9" s="95"/>
       <c r="I9" s="62">
         <v>7</v>
@@ -21540,7 +21590,7 @@
   <dimension ref="B1:R40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21577,26 +21627,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -21609,11 +21659,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -21626,11 +21676,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -21642,29 +21692,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21729,7 +21779,9 @@
         <v>22</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>298</v>
+      </c>
       <c r="H9" s="53"/>
       <c r="I9" s="62">
         <v>3</v>
@@ -22477,7 +22529,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22514,26 +22566,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -22546,11 +22598,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -22563,11 +22615,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22579,29 +22631,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22754,7 +22806,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="G11" s="104" t="s">
+        <v>298</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>11</v>
@@ -23171,8 +23225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23209,26 +23263,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -23241,11 +23295,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -23258,11 +23312,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23274,29 +23328,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23348,20 +23402,22 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="130">
+      <c r="B9" s="111">
         <v>1</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="112" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="113">
         <v>22</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="133"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="114" t="s">
+        <v>298</v>
+      </c>
       <c r="H9" s="53"/>
       <c r="I9" s="62">
         <v>2</v>
@@ -23768,8 +23824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23806,26 +23862,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -23838,11 +23894,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -23855,11 +23911,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23871,29 +23927,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24046,7 +24102,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="39"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="88" t="s">
+        <v>298</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>7</v>
@@ -24417,8 +24475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24455,26 +24513,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -24487,11 +24545,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -24504,11 +24562,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24520,29 +24578,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24652,7 +24710,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -25038,8 +25098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25076,26 +25136,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -25108,11 +25168,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -25125,11 +25185,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25141,29 +25201,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25273,7 +25333,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -25659,8 +25721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25697,26 +25759,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -25729,11 +25791,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -25746,11 +25808,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25762,29 +25824,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25894,7 +25956,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="39"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>5</v>
@@ -26295,7 +26359,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26332,26 +26396,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -26364,11 +26428,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -26381,11 +26445,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26397,29 +26461,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -26529,7 +26593,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="53"/>
       <c r="I10" s="34">
         <v>4</v>
@@ -26913,8 +26979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26951,26 +27017,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -26983,11 +27049,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -27000,11 +27066,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27016,29 +27082,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27191,7 +27257,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="G11" s="50" t="s">
+        <v>298</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
         <v>6</v>
@@ -27542,8 +27610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27580,26 +27648,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="10"/>
       <c r="H3" s="86"/>
       <c r="I3" s="25" t="s">
@@ -27612,11 +27680,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="7"/>
       <c r="H4" s="87"/>
       <c r="I4" s="47" t="s">
@@ -27629,11 +27697,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27645,29 +27713,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27777,7 +27845,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
         <v>4</v>

--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="24" activeTab="28"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CNL" sheetId="28" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="T16TIPOCONTRATO" sheetId="9" r:id="rId4"/>
     <sheet name="T17ESTADOCIVIL" sheetId="10" r:id="rId5"/>
     <sheet name="T17FORMADESEMBOLSO" sheetId="11" r:id="rId6"/>
-    <sheet name="T17IDNIVELACADEMICO" sheetId="12" r:id="rId7"/>
+    <sheet name="T17NIVELACADEMICO" sheetId="12" r:id="rId7"/>
     <sheet name="T17TIPODOCTERCERO" sheetId="13" r:id="rId8"/>
     <sheet name="T17TIPOPAGO" sheetId="14" r:id="rId9"/>
     <sheet name="T19ACTECONOMICA" sheetId="16" r:id="rId10"/>
@@ -7850,7 +7850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23225,7 +23225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
@@ -26358,8 +26358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26781,7 +26781,9 @@
         <v>58</v>
       </c>
       <c r="L16" s="45"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="24">
+        <v>10</v>
+      </c>
       <c r="N16" s="32" t="s">
         <v>56</v>
       </c>
@@ -26979,8 +26981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27502,7 +27504,9 @@
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="45"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="24">
+        <v>3</v>
+      </c>
       <c r="N20" s="32" t="s">
         <v>56</v>
       </c>
@@ -27519,7 +27523,9 @@
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="45"/>
-      <c r="M21" s="34"/>
+      <c r="M21" s="34">
+        <v>11</v>
+      </c>
       <c r="N21" s="32" t="s">
         <v>56</v>
       </c>
@@ -27555,7 +27561,9 @@
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="45"/>
-      <c r="M23" s="34"/>
+      <c r="M23" s="34">
+        <v>1</v>
+      </c>
       <c r="N23" s="32" t="s">
         <v>56</v>
       </c>

--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -6104,9 +6104,6 @@
     <t>Validaciones Generales T02USUARIO /3. Búsqueda del id del esquema</t>
   </si>
   <si>
-    <t>T17IDNIVELACADEMICO</t>
-  </si>
-  <si>
     <t>C65CAUSALARRASTRE</t>
   </si>
   <si>
@@ -6120,6 +6117,9 @@
   </si>
   <si>
     <t>Validaciones Generales T33CAUSALRECHAZO/3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>T17NIVELACADEMICO</t>
   </si>
 </sst>
 </file>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="34">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="62">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="34">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="F11" s="76"/>
       <c r="G11" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -15114,7 +15114,7 @@
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="62">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -17605,7 +17605,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="34">
@@ -18191,7 +18191,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L9" s="85"/>
       <c r="M9" s="37">
@@ -18322,7 +18322,7 @@
         <v>53</v>
       </c>
       <c r="K12" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L12" s="85"/>
       <c r="M12" s="24">
@@ -18357,7 +18357,7 @@
       </c>
       <c r="F13" s="91"/>
       <c r="G13" s="92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="34">
@@ -18367,7 +18367,7 @@
         <v>54</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L13" s="45"/>
       <c r="M13" s="24">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="98">
@@ -19807,7 +19807,7 @@
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="95"/>
       <c r="I9" s="62">
@@ -19887,7 +19887,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>65</v>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="62">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="F9" s="112"/>
       <c r="G9" s="114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="62">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
@@ -24711,7 +24711,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -25334,7 +25334,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -25957,7 +25957,7 @@
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">
@@ -26358,8 +26358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26397,7 +26397,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="120" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E2" s="121"/>
       <c r="F2" s="122"/>
@@ -26594,7 +26594,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="34">
@@ -27260,7 +27260,7 @@
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="34">
@@ -27854,7 +27854,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="34">

--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CNL" sheetId="28" r:id="rId1"/>
@@ -7850,7 +7850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9785,8 +9785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10295,7 +10295,7 @@
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="53"/>
       <c r="M20" s="24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N20" s="32" t="s">
         <v>56</v>
@@ -10314,7 +10314,7 @@
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="45"/>
       <c r="M21" s="34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N21" s="32" t="s">
         <v>56</v>
@@ -10352,7 +10352,7 @@
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="45"/>
       <c r="M23" s="34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N23" s="32" t="s">
         <v>56</v>
@@ -10408,8 +10408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10917,7 +10917,9 @@
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="45"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="24">
+        <v>2</v>
+      </c>
       <c r="N20" s="32" t="s">
         <v>56</v>
       </c>
@@ -10972,7 +10974,9 @@
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="45"/>
-      <c r="M23" s="34"/>
+      <c r="M23" s="34">
+        <v>1</v>
+      </c>
       <c r="N23" s="32" t="s">
         <v>56</v>
       </c>
@@ -12952,8 +12956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13462,7 +13466,7 @@
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="45"/>
       <c r="M20" s="24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N20" s="32" t="s">
         <v>56</v>
@@ -13481,7 +13485,7 @@
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="45"/>
       <c r="M21" s="34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N21" s="32" t="s">
         <v>56</v>
@@ -13519,7 +13523,7 @@
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="45"/>
       <c r="M23" s="34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N23" s="32" t="s">
         <v>56</v>
@@ -13575,8 +13579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14099,7 +14103,7 @@
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="45"/>
       <c r="M20" s="24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N20" s="32" t="s">
         <v>56</v>
@@ -14117,9 +14121,7 @@
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="45"/>
-      <c r="M21" s="34">
-        <v>14</v>
-      </c>
+      <c r="M21" s="34"/>
       <c r="N21" s="32" t="s">
         <v>56</v>
       </c>
@@ -14156,7 +14158,7 @@
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="45"/>
       <c r="M23" s="34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N23" s="32" t="s">
         <v>56</v>
@@ -14175,7 +14177,7 @@
     <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="46"/>
       <c r="M24" s="33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N24" s="41" t="s">
         <v>56</v>
@@ -26358,7 +26360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>

--- a/Cnl/Mapeos_CLS_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CLS_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="24" activeTab="28"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="24" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CNL" sheetId="28" r:id="rId1"/>
@@ -5981,9 +5981,6 @@
     <t>Busqueda del id del esquema Tipo seguro</t>
   </si>
   <si>
-    <t>CC65TIPOSEGURO</t>
-  </si>
-  <si>
     <t>Validaciones Generales T65SOLICITUD /7. Búsqueda del id del esquema Modelo</t>
   </si>
   <si>
@@ -6135,6 +6132,9 @@
   </si>
   <si>
     <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>C65TIPOSEGURO</t>
   </si>
 </sst>
 </file>
@@ -7344,6 +7344,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7410,13 +7417,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -7895,7 +7895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7943,26 +7943,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -7975,15 +7975,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -7992,15 +7992,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -8013,29 +8013,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" s="91"/>
       <c r="I12" s="34">
@@ -8404,22 +8404,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>15</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -8427,10 +8427,10 @@
         <v>15</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -8456,10 +8456,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -8633,26 +8633,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -8665,15 +8665,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -8682,15 +8682,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -8703,29 +8703,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="107" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="34">
@@ -9066,22 +9066,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -9089,10 +9089,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -9118,10 +9118,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -9295,26 +9295,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -9327,15 +9327,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -9344,15 +9344,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -9365,29 +9365,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="34">
@@ -9714,22 +9714,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -9737,10 +9737,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -9766,10 +9766,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -9943,26 +9943,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -9975,15 +9975,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -9992,15 +9992,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -10013,29 +10013,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -10362,22 +10362,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="45"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -10385,10 +10385,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="79" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="79" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="63">
@@ -10414,10 +10414,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="82" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="82" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="24">
@@ -10591,26 +10591,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -10623,15 +10623,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -10640,15 +10640,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -10661,29 +10661,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -11010,22 +11010,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -11033,10 +11033,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -11062,10 +11062,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -11239,26 +11239,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -11271,15 +11271,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -11288,15 +11288,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -11309,29 +11309,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="60">
@@ -11672,22 +11672,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -11695,10 +11695,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -11724,10 +11724,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -11901,26 +11901,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -11933,15 +11933,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -11950,15 +11950,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -11971,29 +11971,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="44">
@@ -12362,22 +12362,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>15</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -12385,10 +12385,10 @@
         <v>15</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -12414,10 +12414,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -12591,26 +12591,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -12623,15 +12623,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -12640,15 +12640,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -12661,29 +12661,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="34">
@@ -13010,22 +13010,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -13033,10 +13033,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -13062,10 +13062,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -13239,26 +13239,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -13271,15 +13271,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -13288,15 +13288,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -13309,29 +13309,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13442,7 +13442,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -13658,22 +13658,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -13681,10 +13681,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -13710,10 +13710,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -13887,26 +13887,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -13919,15 +13919,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -13936,15 +13936,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -13957,29 +13957,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="44">
@@ -14320,22 +14320,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -14343,10 +14343,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -14372,10 +14372,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -14547,26 +14547,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -14579,15 +14579,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -14596,15 +14596,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -14617,29 +14617,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -14966,22 +14966,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -14989,10 +14989,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -15018,10 +15018,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -15195,26 +15195,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -15227,15 +15227,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -15244,15 +15244,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -15265,29 +15265,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="107" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="44">
@@ -15628,22 +15628,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -15651,10 +15651,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -15680,10 +15680,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -15857,26 +15857,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -15889,15 +15889,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -15906,15 +15906,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -15927,29 +15927,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="34">
@@ -16276,22 +16276,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -16299,10 +16299,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -16328,10 +16328,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -16505,26 +16505,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -16537,15 +16537,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -16554,15 +16554,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -16575,29 +16575,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="93">
@@ -16952,22 +16952,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>14</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -16975,10 +16975,10 @@
         <v>14</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -17004,10 +17004,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -17181,26 +17181,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -17213,15 +17213,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -17230,15 +17230,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -17251,29 +17251,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17384,7 +17384,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -17600,22 +17600,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -17623,10 +17623,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -17652,10 +17652,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -17829,26 +17829,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -17861,15 +17861,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -17878,15 +17878,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -17899,29 +17899,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -18248,22 +18248,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -18271,10 +18271,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -18300,10 +18300,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -18477,26 +18477,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -18509,15 +18509,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -18526,15 +18526,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -18547,29 +18547,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18643,7 +18643,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="37">
@@ -18774,7 +18774,7 @@
         <v>53</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="24">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H13" s="91"/>
       <c r="I13" s="34">
@@ -18819,7 +18819,7 @@
         <v>54</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L13" s="52"/>
       <c r="M13" s="24">
@@ -18938,22 +18938,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>15</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -18961,10 +18961,10 @@
         <v>15</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -18990,10 +18990,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -19129,8 +19129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:R33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19167,26 +19167,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -19199,15 +19199,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -19216,15 +19216,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -19237,29 +19237,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="60">
@@ -19368,7 +19368,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="70">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72"/>
@@ -19586,22 +19586,22 @@
         <v>215</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>16</v>
       </c>
-      <c r="N17" s="144" t="s">
+      <c r="N17" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="O17" s="144" t="s">
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -19696,10 +19696,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L21" s="52"/>
       <c r="M21" s="34">
@@ -19725,10 +19725,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K22" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L22" s="52"/>
       <c r="M22" s="34">
@@ -19942,22 +19942,22 @@
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="45"/>
-      <c r="M33" s="143">
+      <c r="M33" s="121">
         <v>16</v>
       </c>
-      <c r="N33" s="144" t="s">
+      <c r="N33" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="O33" s="144" t="s">
+      <c r="O33" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P33" s="144" t="s">
+      <c r="P33" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="145"/>
+      <c r="Q33" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="123"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="45"/>
@@ -20113,8 +20113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R88"/>
   <sheetViews>
-    <sheetView topLeftCell="K79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81:R81"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20151,26 +20151,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -20183,15 +20183,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -20200,15 +20200,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -20221,29 +20221,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20305,11 +20305,11 @@
         <v>65</v>
       </c>
       <c r="E9" s="69">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="93">
@@ -20389,13 +20389,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="67">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="F11" s="68"/>
       <c r="G11" s="85"/>
@@ -20518,13 +20518,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D14" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="70">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="F14" s="74"/>
       <c r="G14" s="72"/>
@@ -20626,22 +20626,22 @@
         <v>250</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>23</v>
       </c>
-      <c r="N17" s="144" t="s">
+      <c r="N17" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="O17" s="144" t="s">
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -20681,7 +20681,7 @@
         <v>253</v>
       </c>
       <c r="K19" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -20710,7 +20710,7 @@
         <v>239</v>
       </c>
       <c r="K20" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L20" s="52"/>
       <c r="M20" s="24">
@@ -20739,7 +20739,7 @@
         <v>240</v>
       </c>
       <c r="K21" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L21" s="52"/>
       <c r="M21" s="34">
@@ -20768,7 +20768,7 @@
         <v>241</v>
       </c>
       <c r="K22" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L22" s="52"/>
       <c r="M22" s="34">
@@ -20797,7 +20797,7 @@
         <v>242</v>
       </c>
       <c r="K23" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L23" s="52"/>
       <c r="M23" s="34">
@@ -20826,7 +20826,7 @@
         <v>254</v>
       </c>
       <c r="K24" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L24" s="96"/>
       <c r="M24" s="33">
@@ -20852,10 +20852,10 @@
         <v>23</v>
       </c>
       <c r="J25" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L25" s="118"/>
       <c r="M25" s="37">
@@ -20883,10 +20883,10 @@
         <v>24</v>
       </c>
       <c r="J26" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K26" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K26" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="34">
@@ -21022,22 +21022,22 @@
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="45"/>
-      <c r="M33" s="143">
+      <c r="M33" s="121">
         <v>23</v>
       </c>
-      <c r="N33" s="144" t="s">
+      <c r="N33" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="O33" s="144" t="s">
+      <c r="O33" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P33" s="144" t="s">
+      <c r="P33" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="145"/>
+      <c r="Q33" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="123"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="45"/>
@@ -21328,22 +21328,22 @@
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="45"/>
-      <c r="M49" s="143">
+      <c r="M49" s="121">
         <v>23</v>
       </c>
-      <c r="N49" s="144" t="s">
+      <c r="N49" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="O49" s="144" t="s">
+      <c r="O49" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P49" s="144" t="s">
+      <c r="P49" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="145"/>
+      <c r="Q49" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="123"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="45"/>
@@ -21634,22 +21634,22 @@
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="45"/>
-      <c r="M65" s="143">
+      <c r="M65" s="121">
         <v>23</v>
       </c>
-      <c r="N65" s="144" t="s">
+      <c r="N65" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="O65" s="144" t="s">
+      <c r="O65" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P65" s="144" t="s">
+      <c r="P65" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="145"/>
+      <c r="Q65" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="123"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="45"/>
@@ -21940,22 +21940,22 @@
     </row>
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L81" s="45"/>
-      <c r="M81" s="143">
+      <c r="M81" s="121">
         <v>23</v>
       </c>
-      <c r="N81" s="144" t="s">
+      <c r="N81" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="O81" s="144" t="s">
+      <c r="O81" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P81" s="144" t="s">
+      <c r="P81" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q81" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R81" s="145"/>
+      <c r="Q81" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R81" s="123"/>
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L82" s="45"/>
@@ -22149,26 +22149,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="D2" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -22181,15 +22181,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -22198,15 +22198,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -22219,29 +22219,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22297,7 +22297,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>65</v>
@@ -22307,7 +22307,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="93">
@@ -22324,7 +22324,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>40</v>
@@ -22344,7 +22344,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>65</v>
@@ -22369,7 +22369,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>19</v>
@@ -22391,14 +22391,14 @@
         <v>53</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="34">
         <v>4</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>22</v>
@@ -22427,7 +22427,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>24</v>
@@ -22456,7 +22456,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>41</v>
@@ -22485,7 +22485,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>42</v>
@@ -22504,17 +22504,17 @@
         <v>9</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="24">
         <v>7</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>43</v>
@@ -22533,17 +22533,17 @@
         <v>10</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L16" s="52"/>
       <c r="M16" s="24">
         <v>7</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>44</v>
@@ -22562,28 +22562,28 @@
         <v>11</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K17" s="58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>264</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -22591,17 +22591,17 @@
         <v>12</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
         <v>14</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O18" s="64" t="s">
         <v>27</v>
@@ -22620,17 +22620,17 @@
         <v>13</v>
       </c>
       <c r="J19" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
         <v>6</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>46</v>
@@ -22649,17 +22649,17 @@
         <v>14</v>
       </c>
       <c r="J20" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K20" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L20" s="52"/>
       <c r="M20" s="24">
         <v>1</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>47</v>
@@ -22678,7 +22678,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>48</v>
@@ -22697,7 +22697,7 @@
         <v>8</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>49</v>
@@ -22716,7 +22716,7 @@
         <v>8</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O23" s="32" t="s">
         <v>50</v>
@@ -22735,7 +22735,7 @@
         <v>8</v>
       </c>
       <c r="N24" s="100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O24" s="100" t="s">
         <v>28</v>
@@ -22754,7 +22754,7 @@
         <v>10</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O25" s="40" t="s">
         <v>40</v>
@@ -22775,7 +22775,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>19</v>
@@ -22794,7 +22794,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O27" s="32" t="s">
         <v>22</v>
@@ -22813,7 +22813,7 @@
         <v>5</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>24</v>
@@ -22832,7 +22832,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O29" s="32" t="s">
         <v>41</v>
@@ -22851,7 +22851,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O30" s="32" t="s">
         <v>42</v>
@@ -22870,7 +22870,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O31" s="32" t="s">
         <v>43</v>
@@ -22889,7 +22889,7 @@
         <v>7</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O32" s="32" t="s">
         <v>44</v>
@@ -22904,22 +22904,22 @@
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="91"/>
-      <c r="M33" s="143">
+      <c r="M33" s="121">
         <v>3</v>
       </c>
-      <c r="N33" s="144" t="s">
-        <v>265</v>
-      </c>
-      <c r="O33" s="144" t="s">
+      <c r="N33" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P33" s="144" t="s">
+      <c r="P33" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="145"/>
+      <c r="Q33" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="123"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="91"/>
@@ -22927,7 +22927,7 @@
         <v>8</v>
       </c>
       <c r="N34" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O34" s="64" t="s">
         <v>27</v>
@@ -22946,7 +22946,7 @@
         <v>6</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O35" s="32" t="s">
         <v>46</v>
@@ -22965,7 +22965,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O36" s="32" t="s">
         <v>47</v>
@@ -22984,7 +22984,7 @@
         <v>8</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O37" s="32" t="s">
         <v>48</v>
@@ -23003,7 +23003,7 @@
         <v>8</v>
       </c>
       <c r="N38" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O38" s="32" t="s">
         <v>49</v>
@@ -23022,7 +23022,7 @@
         <v>8</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>50</v>
@@ -23041,7 +23041,7 @@
         <v>8</v>
       </c>
       <c r="N40" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O40" s="41" t="s">
         <v>28</v>
@@ -23113,26 +23113,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="D2" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -23145,15 +23145,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -23162,15 +23162,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -23183,29 +23183,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23261,7 +23261,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>62</v>
@@ -23286,7 +23286,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>40</v>
@@ -23306,7 +23306,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>62</v>
@@ -23331,7 +23331,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>19</v>
@@ -23349,7 +23349,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>65</v>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="F11" s="97"/>
       <c r="G11" s="115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="34">
@@ -23369,14 +23369,14 @@
         <v>53</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="34">
         <v>10</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>22</v>
@@ -23394,7 +23394,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>65</v>
@@ -23419,7 +23419,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>24</v>
@@ -23437,7 +23437,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>65</v>
@@ -23462,7 +23462,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>41</v>
@@ -23480,7 +23480,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>65</v>
@@ -23505,7 +23505,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>42</v>
@@ -23523,7 +23523,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>65</v>
@@ -23541,14 +23541,14 @@
         <v>32</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="24">
         <v>13</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>43</v>
@@ -23566,7 +23566,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>65</v>
@@ -23581,17 +23581,17 @@
         <v>16</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L16" s="52"/>
       <c r="M16" s="24">
         <v>13</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>44</v>
@@ -23610,28 +23610,28 @@
         <v>17</v>
       </c>
       <c r="J17" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="K17" s="35" t="s">
-        <v>302</v>
-      </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>17</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>284</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="92"/>
@@ -23639,17 +23639,17 @@
         <v>18</v>
       </c>
       <c r="J18" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
         <v>18</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O18" s="64" t="s">
         <v>27</v>
@@ -23668,7 +23668,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>46</v>
@@ -23687,7 +23687,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>47</v>
@@ -23706,7 +23706,7 @@
         <v>14</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>48</v>
@@ -23725,7 +23725,7 @@
         <v>14</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>49</v>
@@ -23744,7 +23744,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O23" s="32" t="s">
         <v>50</v>
@@ -23763,7 +23763,7 @@
         <v>14</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O24" s="41" t="s">
         <v>28</v>
@@ -23797,7 +23797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
@@ -23835,26 +23835,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="D2" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -23867,15 +23867,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -23884,15 +23884,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -23905,29 +23905,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23983,7 +23983,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9" s="104" t="s">
         <v>65</v>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="F9" s="103"/>
       <c r="G9" s="113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="60">
@@ -24063,7 +24063,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L11" s="114"/>
       <c r="M11" s="34">
@@ -24179,7 +24179,7 @@
         <v>32</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L15" s="90"/>
       <c r="M15" s="24">
@@ -24205,10 +24205,10 @@
         <v>9</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L16" s="90"/>
       <c r="M16" s="24">
@@ -24234,28 +24234,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="K17" s="35" t="s">
-        <v>302</v>
-      </c>
       <c r="L17" s="90"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>10</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="92"/>
@@ -24263,10 +24263,10 @@
         <v>11</v>
       </c>
       <c r="J18" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L18" s="90"/>
       <c r="M18" s="63">
@@ -24459,26 +24459,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -24491,15 +24491,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -24508,15 +24508,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -24529,29 +24529,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24705,7 +24705,7 @@
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="34">
@@ -24906,22 +24906,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>14</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -24929,10 +24929,10 @@
         <v>14</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -24958,10 +24958,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -25135,26 +25135,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -25167,15 +25167,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -25184,15 +25184,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -25205,29 +25205,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -25554,22 +25554,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -25577,10 +25577,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -25606,10 +25606,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -25783,26 +25783,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -25815,15 +25815,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -25832,15 +25832,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -25853,29 +25853,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25986,7 +25986,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -26202,22 +26202,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -26225,10 +26225,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -26254,10 +26254,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -26431,26 +26431,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -26463,15 +26463,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -26480,15 +26480,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -26501,29 +26501,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -26634,7 +26634,7 @@
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="44">
@@ -26864,22 +26864,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="45"/>
@@ -26887,10 +26887,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -26916,10 +26916,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -27093,26 +27093,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="D2" s="129" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -27125,15 +27125,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -27142,15 +27142,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -27163,29 +27163,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27296,7 +27296,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="34">
@@ -27512,22 +27512,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -27535,10 +27535,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -27564,10 +27564,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -27741,26 +27741,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -27773,15 +27773,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -27790,15 +27790,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -27811,29 +27811,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
       <c r="H7" s="110"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27987,7 +27987,7 @@
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="44">
@@ -28210,22 +28210,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>13</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="108"/>
@@ -28239,10 +28239,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -28274,10 +28274,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
@@ -28451,26 +28451,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="10"/>
       <c r="H3" s="84"/>
       <c r="I3" s="25" t="s">
@@ -28483,15 +28483,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -28500,15 +28500,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -28521,29 +28521,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28654,7 +28654,7 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="34">
@@ -28870,22 +28870,22 @@
         <v>57</v>
       </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="143">
+      <c r="M17" s="121">
         <v>12</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="144" t="s">
+      <c r="N17" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="145"/>
+      <c r="Q17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="91"/>
@@ -28893,10 +28893,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="63">
@@ -28922,10 +28922,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="24">
